--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-60_remove/rem1/123/word_level_predictions_123.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-60_remove/rem1/123/word_level_predictions_123.xlsx
@@ -2946,104 +2946,104 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="2" t="n">
+      <c r="A49" t="n">
         <v>4</v>
       </c>
-      <c r="B49" s="2" t="inlineStr">
+      <c r="B49" t="inlineStr">
         <is>
           <t>Precision Landing Correcting Landing Position .</t>
         </is>
       </c>
-      <c r="C49" s="2" t="inlineStr">
+      <c r="C49" t="inlineStr">
         <is>
           <t>Precision</t>
         </is>
       </c>
-      <c r="D49" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E49" s="2" t="inlineStr">
+      <c r="D49" t="n">
+        <v>0</v>
+      </c>
+      <c r="E49" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F49" s="2" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G49" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H49" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I49" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J49" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K49" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L49" s="2" t="inlineStr">
+      <c r="G49" t="b">
+        <v>1</v>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I49" t="b">
+        <v>1</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K49" t="b">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="2" t="n">
+      <c r="A50" t="n">
         <v>4</v>
       </c>
-      <c r="B50" s="2" t="inlineStr">
+      <c r="B50" t="inlineStr">
         <is>
           <t>Precision Landing Correcting Landing Position .</t>
         </is>
       </c>
-      <c r="C50" s="2" t="inlineStr">
+      <c r="C50" t="inlineStr">
         <is>
           <t>Landing</t>
         </is>
       </c>
-      <c r="D50" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E50" s="2" t="inlineStr">
+      <c r="D50" t="n">
+        <v>1</v>
+      </c>
+      <c r="E50" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F50" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G50" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H50" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I50" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J50" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K50" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L50" s="2" t="inlineStr">
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G50" t="b">
+        <v>1</v>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I50" t="b">
+        <v>1</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K50" t="b">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
@@ -3073,7 +3073,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>B-Event</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G51" t="b">
@@ -3097,7 +3097,7 @@
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
@@ -4974,158 +4974,158 @@
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="2" t="n">
+      <c r="A88" t="n">
         <v>9</v>
       </c>
-      <c r="B88" s="2" t="inlineStr">
+      <c r="B88" t="inlineStr">
         <is>
           <t>Critically Low Voltage Aircraft will land .</t>
         </is>
       </c>
-      <c r="C88" s="2" t="inlineStr">
+      <c r="C88" t="inlineStr">
         <is>
           <t>Critically</t>
         </is>
       </c>
-      <c r="D88" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E88" s="2" t="inlineStr">
+      <c r="D88" t="n">
+        <v>0</v>
+      </c>
+      <c r="E88" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F88" s="2" t="inlineStr">
+      <c r="F88" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G88" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H88" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I88" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J88" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K88" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L88" s="2" t="inlineStr">
+      <c r="G88" t="b">
+        <v>1</v>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I88" t="b">
+        <v>1</v>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K88" t="b">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="2" t="n">
+      <c r="A89" t="n">
         <v>9</v>
       </c>
-      <c r="B89" s="2" t="inlineStr">
+      <c r="B89" t="inlineStr">
         <is>
           <t>Critically Low Voltage Aircraft will land .</t>
         </is>
       </c>
-      <c r="C89" s="2" t="inlineStr">
+      <c r="C89" t="inlineStr">
         <is>
           <t>Low</t>
         </is>
       </c>
-      <c r="D89" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E89" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F89" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G89" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H89" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I89" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J89" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K89" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L89" s="2" t="inlineStr">
+      <c r="D89" t="n">
+        <v>1</v>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G89" t="b">
+        <v>1</v>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I89" t="b">
+        <v>1</v>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K89" t="b">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="2" t="n">
+      <c r="A90" t="n">
         <v>9</v>
       </c>
-      <c r="B90" s="2" t="inlineStr">
+      <c r="B90" t="inlineStr">
         <is>
           <t>Critically Low Voltage Aircraft will land .</t>
         </is>
       </c>
-      <c r="C90" s="2" t="inlineStr">
+      <c r="C90" t="inlineStr">
         <is>
           <t>Voltage</t>
         </is>
       </c>
-      <c r="D90" s="2" t="n">
+      <c r="D90" t="n">
         <v>2</v>
       </c>
-      <c r="E90" s="2" t="inlineStr">
+      <c r="E90" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F90" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G90" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H90" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I90" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J90" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K90" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L90" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G90" t="b">
+        <v>1</v>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I90" t="b">
+        <v>1</v>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K90" t="b">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -6713,7 +6713,7 @@
       </c>
       <c r="F121" s="2" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>B-Event</t>
         </is>
       </c>
       <c r="G121" s="2" t="b">
@@ -6737,7 +6737,7 @@
       </c>
       <c r="L121" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -6817,7 +6817,7 @@
       </c>
       <c r="F123" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G123" s="2" t="b">
@@ -6841,7 +6841,7 @@
       </c>
       <c r="L123" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -6869,7 +6869,7 @@
       </c>
       <c r="F124" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G124" s="2" t="b">
@@ -6893,7 +6893,7 @@
       </c>
       <c r="L124" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -6921,7 +6921,7 @@
       </c>
       <c r="F125" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G125" s="2" t="b">
@@ -6945,7 +6945,7 @@
       </c>
       <c r="L125" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -6973,7 +6973,7 @@
       </c>
       <c r="F126" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G126" s="2" t="b">
@@ -6997,7 +6997,7 @@
       </c>
       <c r="L126" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -9446,158 +9446,158 @@
       </c>
     </row>
     <row r="174">
-      <c r="A174" s="2" t="n">
+      <c r="A174" t="n">
         <v>16</v>
       </c>
-      <c r="B174" s="2" t="inlineStr">
+      <c r="B174" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C174" s="2" t="inlineStr">
+      <c r="C174" t="inlineStr">
         <is>
           <t>Motor</t>
         </is>
       </c>
-      <c r="D174" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E174" s="2" t="inlineStr">
+      <c r="D174" t="n">
+        <v>0</v>
+      </c>
+      <c r="E174" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F174" s="2" t="inlineStr">
+      <c r="F174" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G174" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H174" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I174" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J174" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K174" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L174" s="2" t="inlineStr">
+      <c r="G174" t="b">
+        <v>1</v>
+      </c>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I174" t="b">
+        <v>1</v>
+      </c>
+      <c r="J174" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K174" t="b">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="175">
-      <c r="A175" s="2" t="n">
+      <c r="A175" t="n">
         <v>16</v>
       </c>
-      <c r="B175" s="2" t="inlineStr">
+      <c r="B175" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C175" s="2" t="inlineStr">
+      <c r="C175" t="inlineStr">
         <is>
           <t>Obstructed</t>
         </is>
       </c>
-      <c r="D175" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E175" s="2" t="inlineStr">
+      <c r="D175" t="n">
+        <v>1</v>
+      </c>
+      <c r="E175" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F175" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G175" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H175" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I175" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J175" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K175" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L175" s="2" t="inlineStr">
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G175" t="b">
+        <v>1</v>
+      </c>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I175" t="b">
+        <v>1</v>
+      </c>
+      <c r="J175" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K175" t="b">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
     <row r="176">
-      <c r="A176" s="2" t="n">
+      <c r="A176" t="n">
         <v>16</v>
       </c>
-      <c r="B176" s="2" t="inlineStr">
+      <c r="B176" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C176" s="2" t="inlineStr">
+      <c r="C176" t="inlineStr">
         <is>
           <t>Propulsion</t>
         </is>
       </c>
-      <c r="D176" s="2" t="n">
+      <c r="D176" t="n">
         <v>2</v>
       </c>
-      <c r="E176" s="2" t="inlineStr">
+      <c r="E176" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F176" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G176" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H176" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I176" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J176" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K176" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L176" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_B_as_I</t>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G176" t="b">
+        <v>1</v>
+      </c>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I176" t="b">
+        <v>1</v>
+      </c>
+      <c r="J176" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K176" t="b">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_B_as_E</t>
         </is>
       </c>
     </row>
@@ -9729,7 +9729,7 @@
       </c>
       <c r="F179" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G179" s="2" t="b">
@@ -9753,7 +9753,7 @@
       </c>
       <c r="L179" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -9781,7 +9781,7 @@
       </c>
       <c r="F180" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G180" s="2" t="b">
@@ -9805,7 +9805,7 @@
       </c>
       <c r="L180" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -9833,7 +9833,7 @@
       </c>
       <c r="F181" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G181" s="2" t="b">
@@ -9857,7 +9857,7 @@
       </c>
       <c r="L181" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -9885,7 +9885,7 @@
       </c>
       <c r="F182" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G182" s="2" t="b">
@@ -9909,7 +9909,7 @@
       </c>
       <c r="L182" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -9989,7 +9989,7 @@
       </c>
       <c r="F184" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G184" s="2" t="b">
@@ -10013,7 +10013,7 @@
       </c>
       <c r="L184" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -10041,7 +10041,7 @@
       </c>
       <c r="F185" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G185" s="2" t="b">
@@ -10065,7 +10065,7 @@
       </c>
       <c r="L185" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -10093,7 +10093,7 @@
       </c>
       <c r="F186" s="2" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G186" s="2" t="b">
@@ -10117,7 +10117,7 @@
       </c>
       <c r="L186" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11006,262 +11006,262 @@
       </c>
     </row>
     <row r="204">
-      <c r="A204" s="2" t="n">
+      <c r="A204" t="n">
         <v>18</v>
       </c>
-      <c r="B204" s="2" t="inlineStr">
+      <c r="B204" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C204" s="2" t="inlineStr">
+      <c r="C204" t="inlineStr">
         <is>
           <t>Obstacle</t>
         </is>
       </c>
-      <c r="D204" s="2" t="n">
+      <c r="D204" t="n">
         <v>6</v>
       </c>
-      <c r="E204" s="2" t="inlineStr">
+      <c r="E204" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F204" s="2" t="inlineStr">
+      <c r="F204" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G204" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H204" s="2" t="inlineStr">
+      <c r="G204" t="b">
+        <v>1</v>
+      </c>
+      <c r="H204" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I204" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J204" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K204" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L204" s="2" t="inlineStr">
+      <c r="I204" t="b">
+        <v>1</v>
+      </c>
+      <c r="J204" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K204" t="b">
+        <v>1</v>
+      </c>
+      <c r="L204" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="205">
-      <c r="A205" s="2" t="n">
+      <c r="A205" t="n">
         <v>18</v>
       </c>
-      <c r="B205" s="2" t="inlineStr">
+      <c r="B205" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C205" s="2" t="inlineStr">
+      <c r="C205" t="inlineStr">
         <is>
           <t>Avoidance</t>
         </is>
       </c>
-      <c r="D205" s="2" t="n">
+      <c r="D205" t="n">
         <v>7</v>
       </c>
-      <c r="E205" s="2" t="inlineStr">
+      <c r="E205" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F205" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G205" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H205" s="2" t="inlineStr">
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G205" t="b">
+        <v>1</v>
+      </c>
+      <c r="H205" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I205" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J205" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K205" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L205" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="I205" t="b">
+        <v>1</v>
+      </c>
+      <c r="J205" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K205" t="b">
+        <v>1</v>
+      </c>
+      <c r="L205" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="206">
-      <c r="A206" s="2" t="n">
+      <c r="A206" t="n">
         <v>18</v>
       </c>
-      <c r="B206" s="2" t="inlineStr">
+      <c r="B206" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C206" s="2" t="inlineStr">
+      <c r="C206" t="inlineStr">
         <is>
           <t>is</t>
         </is>
       </c>
-      <c r="D206" s="2" t="n">
+      <c r="D206" t="n">
         <v>8</v>
       </c>
-      <c r="E206" s="2" t="inlineStr">
+      <c r="E206" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F206" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G206" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H206" s="2" t="inlineStr">
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G206" t="b">
+        <v>1</v>
+      </c>
+      <c r="H206" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I206" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J206" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K206" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L206" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="I206" t="b">
+        <v>1</v>
+      </c>
+      <c r="J206" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K206" t="b">
+        <v>1</v>
+      </c>
+      <c r="L206" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="207">
-      <c r="A207" s="2" t="n">
+      <c r="A207" t="n">
         <v>18</v>
       </c>
-      <c r="B207" s="2" t="inlineStr">
+      <c r="B207" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C207" s="2" t="inlineStr">
+      <c r="C207" t="inlineStr">
         <is>
           <t>not</t>
         </is>
       </c>
-      <c r="D207" s="2" t="n">
+      <c r="D207" t="n">
         <v>9</v>
       </c>
-      <c r="E207" s="2" t="inlineStr">
+      <c r="E207" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F207" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G207" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H207" s="2" t="inlineStr">
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G207" t="b">
+        <v>1</v>
+      </c>
+      <c r="H207" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I207" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J207" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K207" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L207" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="I207" t="b">
+        <v>1</v>
+      </c>
+      <c r="J207" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K207" t="b">
+        <v>1</v>
+      </c>
+      <c r="L207" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="208">
-      <c r="A208" s="2" t="n">
+      <c r="A208" t="n">
         <v>18</v>
       </c>
-      <c r="B208" s="2" t="inlineStr">
+      <c r="B208" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C208" s="2" t="inlineStr">
+      <c r="C208" t="inlineStr">
         <is>
           <t>available</t>
         </is>
       </c>
-      <c r="D208" s="2" t="n">
+      <c r="D208" t="n">
         <v>10</v>
       </c>
-      <c r="E208" s="2" t="inlineStr">
+      <c r="E208" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F208" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G208" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H208" s="2" t="inlineStr">
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G208" t="b">
+        <v>1</v>
+      </c>
+      <c r="H208" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I208" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J208" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K208" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L208" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="I208" t="b">
+        <v>1</v>
+      </c>
+      <c r="J208" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K208" t="b">
+        <v>1</v>
+      </c>
+      <c r="L208" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11318,158 +11318,158 @@
       </c>
     </row>
     <row r="210">
-      <c r="A210" s="2" t="n">
+      <c r="A210" t="n">
         <v>19</v>
       </c>
-      <c r="B210" s="2" t="inlineStr">
+      <c r="B210" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C210" s="2" t="inlineStr">
+      <c r="C210" t="inlineStr">
         <is>
           <t>GEO</t>
         </is>
       </c>
-      <c r="D210" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E210" s="2" t="inlineStr">
+      <c r="D210" t="n">
+        <v>0</v>
+      </c>
+      <c r="E210" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F210" s="2" t="inlineStr">
+      <c r="F210" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G210" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H210" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I210" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J210" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K210" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L210" s="2" t="inlineStr">
+      <c r="G210" t="b">
+        <v>1</v>
+      </c>
+      <c r="H210" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I210" t="b">
+        <v>1</v>
+      </c>
+      <c r="J210" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K210" t="b">
+        <v>1</v>
+      </c>
+      <c r="L210" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="211">
-      <c r="A211" s="2" t="n">
+      <c r="A211" t="n">
         <v>19</v>
       </c>
-      <c r="B211" s="2" t="inlineStr">
+      <c r="B211" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C211" s="2" t="inlineStr">
+      <c r="C211" t="inlineStr">
         <is>
           <t>Zone</t>
         </is>
       </c>
-      <c r="D211" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E211" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F211" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G211" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H211" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I211" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J211" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K211" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L211" s="2" t="inlineStr">
+      <c r="D211" t="n">
+        <v>1</v>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G211" t="b">
+        <v>1</v>
+      </c>
+      <c r="H211" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I211" t="b">
+        <v>1</v>
+      </c>
+      <c r="J211" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K211" t="b">
+        <v>1</v>
+      </c>
+      <c r="L211" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="212">
-      <c r="A212" s="2" t="n">
+      <c r="A212" t="n">
         <v>19</v>
       </c>
-      <c r="B212" s="2" t="inlineStr">
+      <c r="B212" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C212" s="2" t="inlineStr">
+      <c r="C212" t="inlineStr">
         <is>
           <t>Info:</t>
         </is>
       </c>
-      <c r="D212" s="2" t="n">
+      <c r="D212" t="n">
         <v>2</v>
       </c>
-      <c r="E212" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F212" s="2" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G212" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H212" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I212" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J212" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K212" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L212" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G212" t="b">
+        <v>1</v>
+      </c>
+      <c r="H212" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I212" t="b">
+        <v>1</v>
+      </c>
+      <c r="J212" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K212" t="b">
+        <v>1</v>
+      </c>
+      <c r="L212" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_I_as_E</t>
         </is>
       </c>
     </row>
@@ -11497,7 +11497,7 @@
       </c>
       <c r="F213" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G213" s="2" t="b">
@@ -11509,11 +11509,11 @@
         </is>
       </c>
       <c r="I213" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J213" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K213" s="2" t="b">
@@ -11549,7 +11549,7 @@
       </c>
       <c r="F214" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G214" s="2" t="b">
@@ -11561,11 +11561,11 @@
         </is>
       </c>
       <c r="I214" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J214" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K214" s="2" t="b">
@@ -11573,7 +11573,7 @@
       </c>
       <c r="L214" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11601,7 +11601,7 @@
       </c>
       <c r="F215" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G215" s="2" t="b">
@@ -11613,11 +11613,11 @@
         </is>
       </c>
       <c r="I215" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J215" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K215" s="2" t="b">
@@ -11625,7 +11625,7 @@
       </c>
       <c r="L215" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11653,7 +11653,7 @@
       </c>
       <c r="F216" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G216" s="2" t="b">
@@ -11665,11 +11665,11 @@
         </is>
       </c>
       <c r="I216" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J216" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K216" s="2" t="b">
@@ -11677,7 +11677,7 @@
       </c>
       <c r="L216" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11717,11 +11717,11 @@
         </is>
       </c>
       <c r="I217" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J217" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K217" s="2" t="b">
@@ -11757,7 +11757,7 @@
       </c>
       <c r="F218" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G218" s="2" t="b">
@@ -11769,11 +11769,11 @@
         </is>
       </c>
       <c r="I218" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J218" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K218" s="2" t="b">
@@ -11781,7 +11781,7 @@
       </c>
       <c r="L218" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11821,11 +11821,11 @@
         </is>
       </c>
       <c r="I219" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J219" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K219" s="2" t="b">
@@ -11873,11 +11873,11 @@
         </is>
       </c>
       <c r="I220" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J220" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K220" s="2" t="b">
@@ -12514,158 +12514,158 @@
       </c>
     </row>
     <row r="233">
-      <c r="A233" s="2" t="n">
+      <c r="A233" t="n">
         <v>20</v>
       </c>
-      <c r="B233" s="2" t="inlineStr">
+      <c r="B233" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C233" s="2" t="inlineStr">
+      <c r="C233" t="inlineStr">
         <is>
           <t>When</t>
         </is>
       </c>
-      <c r="D233" s="2" t="n">
+      <c r="D233" t="n">
         <v>6</v>
       </c>
-      <c r="E233" s="2" t="inlineStr">
+      <c r="E233" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F233" s="2" t="inlineStr">
+      <c r="F233" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G233" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H233" s="2" t="inlineStr">
+      <c r="G233" t="b">
+        <v>1</v>
+      </c>
+      <c r="H233" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I233" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J233" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K233" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L233" s="2" t="inlineStr">
+      <c r="I233" t="b">
+        <v>1</v>
+      </c>
+      <c r="J233" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K233" t="b">
+        <v>1</v>
+      </c>
+      <c r="L233" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="234">
-      <c r="A234" s="2" t="n">
+      <c r="A234" t="n">
         <v>20</v>
       </c>
-      <c r="B234" s="2" t="inlineStr">
+      <c r="B234" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C234" s="2" t="inlineStr">
+      <c r="C234" t="inlineStr">
         <is>
           <t>exceeding</t>
         </is>
       </c>
-      <c r="D234" s="2" t="n">
+      <c r="D234" t="n">
         <v>7</v>
       </c>
-      <c r="E234" s="2" t="inlineStr">
+      <c r="E234" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F234" s="2" t="inlineStr">
+      <c r="F234" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="G234" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H234" s="2" t="inlineStr">
+      <c r="G234" t="b">
+        <v>1</v>
+      </c>
+      <c r="H234" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I234" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J234" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K234" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L234" s="2" t="inlineStr">
+      <c r="I234" t="b">
+        <v>1</v>
+      </c>
+      <c r="J234" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K234" t="b">
+        <v>1</v>
+      </c>
+      <c r="L234" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="235">
-      <c r="A235" s="2" t="n">
+      <c r="A235" t="n">
         <v>20</v>
       </c>
-      <c r="B235" s="2" t="inlineStr">
+      <c r="B235" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C235" s="2" t="inlineStr">
+      <c r="C235" t="inlineStr">
         <is>
           <t>nnn,</t>
         </is>
       </c>
-      <c r="D235" s="2" t="n">
+      <c r="D235" t="n">
         <v>8</v>
       </c>
-      <c r="E235" s="2" t="inlineStr">
+      <c r="E235" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F235" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G235" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H235" s="2" t="inlineStr">
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G235" t="b">
+        <v>1</v>
+      </c>
+      <c r="H235" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I235" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J235" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K235" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L235" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="I235" t="b">
+        <v>1</v>
+      </c>
+      <c r="J235" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K235" t="b">
+        <v>1</v>
+      </c>
+      <c r="L235" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_I_as_E</t>
         </is>
       </c>
     </row>

--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-60_remove/rem1/123/word_level_predictions_123.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-60_remove/rem1/123/word_level_predictions_123.xlsx
@@ -2946,104 +2946,104 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="n">
+      <c r="A49" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B49" s="2" t="inlineStr">
         <is>
           <t>Precision Landing Correcting Landing Position .</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="C49" s="2" t="inlineStr">
         <is>
           <t>Precision</t>
         </is>
       </c>
-      <c r="D49" t="n">
-        <v>0</v>
-      </c>
-      <c r="E49" t="inlineStr">
+      <c r="D49" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E49" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="F49" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G49" t="b">
-        <v>1</v>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I49" t="b">
-        <v>1</v>
-      </c>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K49" t="b">
-        <v>1</v>
-      </c>
-      <c r="L49" t="inlineStr">
+      <c r="G49" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H49" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I49" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J49" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K49" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L49" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="n">
+      <c r="A50" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B50" s="2" t="inlineStr">
         <is>
           <t>Precision Landing Correcting Landing Position .</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="C50" s="2" t="inlineStr">
         <is>
           <t>Landing</t>
         </is>
       </c>
-      <c r="D50" t="n">
-        <v>1</v>
-      </c>
-      <c r="E50" t="inlineStr">
+      <c r="D50" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E50" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G50" t="b">
-        <v>1</v>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I50" t="b">
-        <v>1</v>
-      </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K50" t="b">
-        <v>1</v>
-      </c>
-      <c r="L50" t="inlineStr">
+      <c r="F50" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G50" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H50" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I50" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J50" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K50" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L50" s="2" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
@@ -3073,7 +3073,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>B-Event</t>
         </is>
       </c>
       <c r="G51" t="b">
@@ -3097,7 +3097,7 @@
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>Wrong_Tag_B_as_I</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -4974,158 +4974,158 @@
       </c>
     </row>
     <row r="88">
-      <c r="A88" t="n">
+      <c r="A88" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B88" t="inlineStr">
+      <c r="B88" s="2" t="inlineStr">
         <is>
           <t>Critically Low Voltage Aircraft will land .</t>
         </is>
       </c>
-      <c r="C88" t="inlineStr">
+      <c r="C88" s="2" t="inlineStr">
         <is>
           <t>Critically</t>
         </is>
       </c>
-      <c r="D88" t="n">
-        <v>0</v>
-      </c>
-      <c r="E88" t="inlineStr">
+      <c r="D88" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E88" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F88" t="inlineStr">
+      <c r="F88" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G88" t="b">
-        <v>1</v>
-      </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I88" t="b">
-        <v>1</v>
-      </c>
-      <c r="J88" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K88" t="b">
-        <v>1</v>
-      </c>
-      <c r="L88" t="inlineStr">
+      <c r="G88" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H88" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I88" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J88" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K88" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L88" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="89">
-      <c r="A89" t="n">
+      <c r="A89" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B89" t="inlineStr">
+      <c r="B89" s="2" t="inlineStr">
         <is>
           <t>Critically Low Voltage Aircraft will land .</t>
         </is>
       </c>
-      <c r="C89" t="inlineStr">
+      <c r="C89" s="2" t="inlineStr">
         <is>
           <t>Low</t>
         </is>
       </c>
-      <c r="D89" t="n">
-        <v>1</v>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G89" t="b">
-        <v>1</v>
-      </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I89" t="b">
-        <v>1</v>
-      </c>
-      <c r="J89" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K89" t="b">
-        <v>1</v>
-      </c>
-      <c r="L89" t="inlineStr">
+      <c r="D89" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E89" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F89" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G89" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H89" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I89" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J89" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K89" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L89" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="90">
-      <c r="A90" t="n">
+      <c r="A90" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B90" t="inlineStr">
+      <c r="B90" s="2" t="inlineStr">
         <is>
           <t>Critically Low Voltage Aircraft will land .</t>
         </is>
       </c>
-      <c r="C90" t="inlineStr">
+      <c r="C90" s="2" t="inlineStr">
         <is>
           <t>Voltage</t>
         </is>
       </c>
-      <c r="D90" t="n">
+      <c r="D90" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E90" t="inlineStr">
+      <c r="E90" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G90" t="b">
-        <v>1</v>
-      </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I90" t="b">
-        <v>1</v>
-      </c>
-      <c r="J90" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K90" t="b">
-        <v>1</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F90" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G90" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H90" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I90" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J90" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K90" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L90" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
@@ -6713,7 +6713,7 @@
       </c>
       <c r="F121" s="2" t="inlineStr">
         <is>
-          <t>B-Event</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G121" s="2" t="b">
@@ -6737,7 +6737,7 @@
       </c>
       <c r="L121" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -6817,7 +6817,7 @@
       </c>
       <c r="F123" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G123" s="2" t="b">
@@ -6841,7 +6841,7 @@
       </c>
       <c r="L123" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -6869,7 +6869,7 @@
       </c>
       <c r="F124" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G124" s="2" t="b">
@@ -6893,7 +6893,7 @@
       </c>
       <c r="L124" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -6921,7 +6921,7 @@
       </c>
       <c r="F125" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G125" s="2" t="b">
@@ -6945,7 +6945,7 @@
       </c>
       <c r="L125" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -6973,7 +6973,7 @@
       </c>
       <c r="F126" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G126" s="2" t="b">
@@ -6997,7 +6997,7 @@
       </c>
       <c r="L126" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -9446,158 +9446,158 @@
       </c>
     </row>
     <row r="174">
-      <c r="A174" t="n">
+      <c r="A174" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B174" t="inlineStr">
+      <c r="B174" s="2" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C174" t="inlineStr">
+      <c r="C174" s="2" t="inlineStr">
         <is>
           <t>Motor</t>
         </is>
       </c>
-      <c r="D174" t="n">
-        <v>0</v>
-      </c>
-      <c r="E174" t="inlineStr">
+      <c r="D174" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E174" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F174" t="inlineStr">
+      <c r="F174" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G174" t="b">
-        <v>1</v>
-      </c>
-      <c r="H174" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I174" t="b">
-        <v>1</v>
-      </c>
-      <c r="J174" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K174" t="b">
-        <v>1</v>
-      </c>
-      <c r="L174" t="inlineStr">
+      <c r="G174" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H174" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I174" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J174" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K174" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L174" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="175">
-      <c r="A175" t="n">
+      <c r="A175" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B175" t="inlineStr">
+      <c r="B175" s="2" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C175" t="inlineStr">
+      <c r="C175" s="2" t="inlineStr">
         <is>
           <t>Obstructed</t>
         </is>
       </c>
-      <c r="D175" t="n">
-        <v>1</v>
-      </c>
-      <c r="E175" t="inlineStr">
+      <c r="D175" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E175" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F175" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G175" t="b">
-        <v>1</v>
-      </c>
-      <c r="H175" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I175" t="b">
-        <v>1</v>
-      </c>
-      <c r="J175" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K175" t="b">
-        <v>1</v>
-      </c>
-      <c r="L175" t="inlineStr">
+      <c r="F175" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G175" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H175" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I175" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J175" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K175" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L175" s="2" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
     <row r="176">
-      <c r="A176" t="n">
+      <c r="A176" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B176" t="inlineStr">
+      <c r="B176" s="2" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C176" t="inlineStr">
+      <c r="C176" s="2" t="inlineStr">
         <is>
           <t>Propulsion</t>
         </is>
       </c>
-      <c r="D176" t="n">
+      <c r="D176" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E176" t="inlineStr">
+      <c r="E176" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F176" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G176" t="b">
-        <v>1</v>
-      </c>
-      <c r="H176" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I176" t="b">
-        <v>1</v>
-      </c>
-      <c r="J176" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K176" t="b">
-        <v>1</v>
-      </c>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_B_as_E</t>
+      <c r="F176" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G176" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H176" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I176" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J176" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K176" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L176" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
@@ -9729,7 +9729,7 @@
       </c>
       <c r="F179" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G179" s="2" t="b">
@@ -9753,7 +9753,7 @@
       </c>
       <c r="L179" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -9781,7 +9781,7 @@
       </c>
       <c r="F180" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G180" s="2" t="b">
@@ -9805,7 +9805,7 @@
       </c>
       <c r="L180" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -9833,7 +9833,7 @@
       </c>
       <c r="F181" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G181" s="2" t="b">
@@ -9857,7 +9857,7 @@
       </c>
       <c r="L181" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -9885,7 +9885,7 @@
       </c>
       <c r="F182" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G182" s="2" t="b">
@@ -9909,7 +9909,7 @@
       </c>
       <c r="L182" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -9989,7 +9989,7 @@
       </c>
       <c r="F184" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G184" s="2" t="b">
@@ -10013,7 +10013,7 @@
       </c>
       <c r="L184" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -10041,7 +10041,7 @@
       </c>
       <c r="F185" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G185" s="2" t="b">
@@ -10065,7 +10065,7 @@
       </c>
       <c r="L185" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -10093,7 +10093,7 @@
       </c>
       <c r="F186" s="2" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G186" s="2" t="b">
@@ -10117,7 +10117,7 @@
       </c>
       <c r="L186" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -11006,262 +11006,262 @@
       </c>
     </row>
     <row r="204">
-      <c r="A204" t="n">
+      <c r="A204" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="B204" t="inlineStr">
+      <c r="B204" s="2" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C204" t="inlineStr">
+      <c r="C204" s="2" t="inlineStr">
         <is>
           <t>Obstacle</t>
         </is>
       </c>
-      <c r="D204" t="n">
+      <c r="D204" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E204" t="inlineStr">
+      <c r="E204" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F204" t="inlineStr">
+      <c r="F204" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G204" t="b">
-        <v>1</v>
-      </c>
-      <c r="H204" t="inlineStr">
+      <c r="G204" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H204" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I204" t="b">
-        <v>1</v>
-      </c>
-      <c r="J204" t="inlineStr">
+      <c r="I204" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J204" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K204" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L204" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B205" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C205" s="2" t="inlineStr">
+        <is>
+          <t>Avoidance</t>
+        </is>
+      </c>
+      <c r="D205" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="E205" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F205" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G205" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H205" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="K204" t="b">
-        <v>1</v>
-      </c>
-      <c r="L204" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" t="n">
+      <c r="I205" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J205" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K205" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L205" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="B205" t="inlineStr">
+      <c r="B206" s="2" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C205" t="inlineStr">
-        <is>
-          <t>Avoidance</t>
-        </is>
-      </c>
-      <c r="D205" t="n">
-        <v>7</v>
-      </c>
-      <c r="E205" t="inlineStr">
+      <c r="C206" s="2" t="inlineStr">
+        <is>
+          <t>is</t>
+        </is>
+      </c>
+      <c r="D206" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="E206" s="2" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F205" t="inlineStr">
+      <c r="F206" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G206" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H206" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I206" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J206" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K206" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L206" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B207" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C207" s="2" t="inlineStr">
+        <is>
+          <t>not</t>
+        </is>
+      </c>
+      <c r="D207" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="E207" s="2" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="G205" t="b">
-        <v>1</v>
-      </c>
-      <c r="H205" t="inlineStr">
+      <c r="F207" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G207" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H207" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I205" t="b">
-        <v>1</v>
-      </c>
-      <c r="J205" t="inlineStr">
+      <c r="I207" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J207" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K207" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L207" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B208" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C208" s="2" t="inlineStr">
+        <is>
+          <t>available</t>
+        </is>
+      </c>
+      <c r="D208" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E208" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="F208" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G208" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H208" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="K205" t="b">
-        <v>1</v>
-      </c>
-      <c r="L205" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" t="n">
-        <v>18</v>
-      </c>
-      <c r="B206" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C206" t="inlineStr">
-        <is>
-          <t>is</t>
-        </is>
-      </c>
-      <c r="D206" t="n">
-        <v>8</v>
-      </c>
-      <c r="E206" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F206" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G206" t="b">
-        <v>1</v>
-      </c>
-      <c r="H206" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I206" t="b">
-        <v>1</v>
-      </c>
-      <c r="J206" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K206" t="b">
-        <v>1</v>
-      </c>
-      <c r="L206" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" t="n">
-        <v>18</v>
-      </c>
-      <c r="B207" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C207" t="inlineStr">
-        <is>
-          <t>not</t>
-        </is>
-      </c>
-      <c r="D207" t="n">
-        <v>9</v>
-      </c>
-      <c r="E207" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F207" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G207" t="b">
-        <v>1</v>
-      </c>
-      <c r="H207" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I207" t="b">
-        <v>1</v>
-      </c>
-      <c r="J207" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K207" t="b">
-        <v>1</v>
-      </c>
-      <c r="L207" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" t="n">
-        <v>18</v>
-      </c>
-      <c r="B208" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C208" t="inlineStr">
-        <is>
-          <t>available</t>
-        </is>
-      </c>
-      <c r="D208" t="n">
-        <v>10</v>
-      </c>
-      <c r="E208" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="F208" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G208" t="b">
-        <v>1</v>
-      </c>
-      <c r="H208" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I208" t="b">
-        <v>1</v>
-      </c>
-      <c r="J208" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K208" t="b">
-        <v>1</v>
-      </c>
-      <c r="L208" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="I208" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J208" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K208" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L208" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -11318,158 +11318,158 @@
       </c>
     </row>
     <row r="210">
-      <c r="A210" t="n">
+      <c r="A210" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="B210" t="inlineStr">
+      <c r="B210" s="2" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C210" t="inlineStr">
+      <c r="C210" s="2" t="inlineStr">
         <is>
           <t>GEO</t>
         </is>
       </c>
-      <c r="D210" t="n">
-        <v>0</v>
-      </c>
-      <c r="E210" t="inlineStr">
+      <c r="D210" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E210" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F210" t="inlineStr">
+      <c r="F210" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G210" t="b">
-        <v>1</v>
-      </c>
-      <c r="H210" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I210" t="b">
-        <v>1</v>
-      </c>
-      <c r="J210" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K210" t="b">
-        <v>1</v>
-      </c>
-      <c r="L210" t="inlineStr">
+      <c r="G210" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H210" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I210" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J210" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K210" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L210" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="211">
-      <c r="A211" t="n">
+      <c r="A211" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="B211" t="inlineStr">
+      <c r="B211" s="2" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C211" t="inlineStr">
+      <c r="C211" s="2" t="inlineStr">
         <is>
           <t>Zone</t>
         </is>
       </c>
-      <c r="D211" t="n">
-        <v>1</v>
-      </c>
-      <c r="E211" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F211" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G211" t="b">
-        <v>1</v>
-      </c>
-      <c r="H211" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I211" t="b">
-        <v>1</v>
-      </c>
-      <c r="J211" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K211" t="b">
-        <v>1</v>
-      </c>
-      <c r="L211" t="inlineStr">
+      <c r="D211" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E211" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F211" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G211" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H211" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I211" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J211" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K211" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L211" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="212">
-      <c r="A212" t="n">
+      <c r="A212" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="B212" t="inlineStr">
+      <c r="B212" s="2" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C212" t="inlineStr">
+      <c r="C212" s="2" t="inlineStr">
         <is>
           <t>Info:</t>
         </is>
       </c>
-      <c r="D212" t="n">
+      <c r="D212" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E212" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F212" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G212" t="b">
-        <v>1</v>
-      </c>
-      <c r="H212" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I212" t="b">
-        <v>1</v>
-      </c>
-      <c r="J212" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K212" t="b">
-        <v>1</v>
-      </c>
-      <c r="L212" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_I_as_E</t>
+      <c r="E212" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F212" s="2" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G212" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H212" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I212" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J212" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K212" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L212" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -11497,7 +11497,7 @@
       </c>
       <c r="F213" s="2" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G213" s="2" t="b">
@@ -11509,11 +11509,11 @@
         </is>
       </c>
       <c r="I213" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J213" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K213" s="2" t="b">
@@ -11549,7 +11549,7 @@
       </c>
       <c r="F214" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G214" s="2" t="b">
@@ -11561,11 +11561,11 @@
         </is>
       </c>
       <c r="I214" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J214" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K214" s="2" t="b">
@@ -11573,7 +11573,7 @@
       </c>
       <c r="L214" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -11601,7 +11601,7 @@
       </c>
       <c r="F215" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G215" s="2" t="b">
@@ -11613,11 +11613,11 @@
         </is>
       </c>
       <c r="I215" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J215" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K215" s="2" t="b">
@@ -11625,7 +11625,7 @@
       </c>
       <c r="L215" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -11653,7 +11653,7 @@
       </c>
       <c r="F216" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G216" s="2" t="b">
@@ -11665,11 +11665,11 @@
         </is>
       </c>
       <c r="I216" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J216" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K216" s="2" t="b">
@@ -11677,7 +11677,7 @@
       </c>
       <c r="L216" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -11717,11 +11717,11 @@
         </is>
       </c>
       <c r="I217" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J217" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K217" s="2" t="b">
@@ -11757,7 +11757,7 @@
       </c>
       <c r="F218" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G218" s="2" t="b">
@@ -11769,11 +11769,11 @@
         </is>
       </c>
       <c r="I218" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J218" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K218" s="2" t="b">
@@ -11781,7 +11781,7 @@
       </c>
       <c r="L218" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -11821,11 +11821,11 @@
         </is>
       </c>
       <c r="I219" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J219" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K219" s="2" t="b">
@@ -11873,11 +11873,11 @@
         </is>
       </c>
       <c r="I220" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J220" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K220" s="2" t="b">
@@ -12514,158 +12514,158 @@
       </c>
     </row>
     <row r="233">
-      <c r="A233" t="n">
+      <c r="A233" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B233" t="inlineStr">
+      <c r="B233" s="2" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C233" t="inlineStr">
+      <c r="C233" s="2" t="inlineStr">
         <is>
           <t>When</t>
         </is>
       </c>
-      <c r="D233" t="n">
+      <c r="D233" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E233" t="inlineStr">
+      <c r="E233" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F233" t="inlineStr">
+      <c r="F233" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G233" t="b">
-        <v>1</v>
-      </c>
-      <c r="H233" t="inlineStr">
+      <c r="G233" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H233" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I233" t="b">
-        <v>1</v>
-      </c>
-      <c r="J233" t="inlineStr">
+      <c r="I233" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J233" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K233" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L233" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B234" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C234" s="2" t="inlineStr">
+        <is>
+          <t>exceeding</t>
+        </is>
+      </c>
+      <c r="D234" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="E234" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F234" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G234" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H234" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="K233" t="b">
-        <v>1</v>
-      </c>
-      <c r="L233" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="234">
-      <c r="A234" t="n">
+      <c r="I234" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J234" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K234" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L234" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B234" t="inlineStr">
+      <c r="B235" s="2" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C234" t="inlineStr">
-        <is>
-          <t>exceeding</t>
-        </is>
-      </c>
-      <c r="D234" t="n">
-        <v>7</v>
-      </c>
-      <c r="E234" t="inlineStr">
+      <c r="C235" s="2" t="inlineStr">
+        <is>
+          <t>nnn,</t>
+        </is>
+      </c>
+      <c r="D235" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="E235" s="2" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F234" t="inlineStr">
+      <c r="F235" s="2" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="G234" t="b">
-        <v>1</v>
-      </c>
-      <c r="H234" t="inlineStr">
+      <c r="G235" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H235" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I234" t="b">
-        <v>1</v>
-      </c>
-      <c r="J234" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K234" t="b">
-        <v>1</v>
-      </c>
-      <c r="L234" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="235">
-      <c r="A235" t="n">
-        <v>20</v>
-      </c>
-      <c r="B235" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C235" t="inlineStr">
-        <is>
-          <t>nnn,</t>
-        </is>
-      </c>
-      <c r="D235" t="n">
-        <v>8</v>
-      </c>
-      <c r="E235" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F235" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G235" t="b">
-        <v>1</v>
-      </c>
-      <c r="H235" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I235" t="b">
-        <v>1</v>
-      </c>
-      <c r="J235" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K235" t="b">
-        <v>1</v>
-      </c>
-      <c r="L235" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_I_as_E</t>
+      <c r="I235" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J235" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K235" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L235" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
